--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/40/Output_14_39.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/40/Output_14_39.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>32949.76975971543</v>
+        <v>6557004.182183372</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>32949.76975971543</v>
+        <v>6557004.182183372</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>9965.339587560065</v>
+        <v>599693.4060472114</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9965.339587560065</v>
+        <v>599693.4060472114</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1189438501.147706</v>
+        <v>48688656.22881109</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>10773.16569254079</v>
+        <v>1153303.94733984</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>20476.21533385439</v>
+        <v>2129321.1535976</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>30179.26497516799</v>
+        <v>3105338.359855362</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>40389.87996455462</v>
+        <v>4048883.832970407</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>50600.49495394122</v>
+        <v>4992429.306085452</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>60420.59058959987</v>
+        <v>5968148.020935337</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>70240.68622525853</v>
+        <v>6943866.735785221</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>80060.78186091711</v>
+        <v>7919585.450635108</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>90092.16091425293</v>
+        <v>8863077.236898188</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>100148.4854221336</v>
+        <v>9811533.168615928</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>110005.3005276479</v>
+        <v>10792539.69582016</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>119837.043668607</v>
+        <v>11768556.90207792</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>129668.7868095661</v>
+        <v>12744574.10833569</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>139879.2752889431</v>
+        <v>13688094.40595882</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>150089.8902783297</v>
+        <v>14631639.87907387</v>
       </c>
     </row>
   </sheetData>
